--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_no_assign_results_Date_threshold_25_30_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_no_assign_results_Date_threshold_25_30_replicas_SMOTE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="333">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -122,910 +122,898 @@
     <t>0.661+/-0.0</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.976+/-0.024</t>
-  </si>
-  <si>
-    <t>0.544+/-0.016</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.968+/-0.031</t>
-  </si>
-  <si>
-    <t>0.676+/-0.038</t>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.977+/-0.024</t>
+  </si>
+  <si>
+    <t>0.545+/-0.017</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.967+/-0.031</t>
+  </si>
+  <si>
+    <t>0.674+/-0.037</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.998+/-0.001</t>
+  </si>
+  <si>
+    <t>0.732+/-0.016</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.004+/-0.0</t>
+  </si>
+  <si>
+    <t>0.615+/-0.004</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.595+/-0.004</t>
+  </si>
+  <si>
+    <t>0.468+/-0.012</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>0.724+/-0.01</t>
+  </si>
+  <si>
+    <t>0.709+/-0.024</t>
+  </si>
+  <si>
+    <t>0.641+/-0.008</t>
+  </si>
+  <si>
+    <t>0.63+/-0.018</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.16+/-0.028</t>
+  </si>
+  <si>
+    <t>0.542+/-0.005</t>
+  </si>
+  <si>
+    <t>0.472+/-0.0</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.527+/-0.004</t>
+  </si>
+  <si>
+    <t>0.404+/-0.008</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.823+/-0.015</t>
+  </si>
+  <si>
+    <t>0.816+/-0.023</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.594+/-0.007</t>
+  </si>
+  <si>
+    <t>0.585+/-0.02</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.588+/-0.003</t>
+  </si>
+  <si>
+    <t>0.567+/-0.0</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.577+/-0.002</t>
+  </si>
+  <si>
+    <t>0.453+/-0.012</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.663+/-0.013</t>
+  </si>
+  <si>
+    <t>0.655+/-0.029</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.62+/-0.005</t>
+  </si>
+  <si>
+    <t>0.612+/-0.018</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.754+/-0.008</t>
+  </si>
+  <si>
+    <t>0.681+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.74+/-0.024</t>
+  </si>
+  <si>
+    <t>0.569+/-0.028</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.787+/-0.05</t>
+  </si>
+  <si>
+    <t>0.691+/-0.054</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.848+/-0.007</t>
+  </si>
+  <si>
+    <t>0.758+/-0.014</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>3.77+/-0.872</t>
+  </si>
+  <si>
+    <t>0.753+/-0.01</t>
+  </si>
+  <si>
+    <t>0.639+/-0.0</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.722+/-0.02</t>
+  </si>
+  <si>
+    <t>0.52+/-0.02</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>0.826+/-0.035</t>
+  </si>
+  <si>
+    <t>0.691+/-0.047</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.85+/-0.01</t>
+  </si>
+  <si>
+    <t>0.7+/-0.019</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.137+/-0.015</t>
+  </si>
+  <si>
+    <t>0.73+/-0.01</t>
+  </si>
+  <si>
+    <t>0.634+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701+/-0.02</t>
+  </si>
+  <si>
+    <t>0.516+/-0.021</t>
+  </si>
+  <si>
+    <t>0.807+/-0.039</t>
+  </si>
+  <si>
+    <t>0.692+/-0.05</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.827+/-0.011</t>
+  </si>
+  <si>
+    <t>0.699+/-0.019</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.192+/-0.028</t>
+  </si>
+  <si>
+    <t>0.702+/-0.005</t>
+  </si>
+  <si>
+    <t>0.64+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.663+/-0.006</t>
+  </si>
+  <si>
+    <t>0.519+/-0.013</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.819+/-0.009</t>
+  </si>
+  <si>
+    <t>0.766+/-0.022</t>
+  </si>
+  <si>
+    <t>0.757</t>
+  </si>
+  <si>
+    <t>0.774+/-0.005</t>
+  </si>
+  <si>
+    <t>0.721+/-0.016</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>46.698+/-5.826</t>
+  </si>
+  <si>
+    <t>0.824+/-0.006</t>
+  </si>
+  <si>
+    <t>0.687+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.786+/-0.009</t>
+  </si>
+  <si>
+    <t>0.571+/-0.016</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.892+/-0.006</t>
+  </si>
+  <si>
+    <t>0.722+/-0.024</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.921+/-0.003</t>
+  </si>
+  <si>
+    <t>0.773+/-0.014</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>9.116+/-0.257</t>
+  </si>
+  <si>
+    <t>0.67+/-0.005</t>
+  </si>
+  <si>
+    <t>0.617+/-0.0</t>
+  </si>
+  <si>
+    <t>0.614</t>
+  </si>
+  <si>
+    <t>0.646+/-0.005</t>
+  </si>
+  <si>
+    <t>0.498+/-0.013</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.749+/-0.008</t>
+  </si>
+  <si>
+    <t>0.685+/-0.027</t>
   </si>
   <si>
     <t>0.7</t>
   </si>
   <si>
+    <t>0.743+/-0.007</t>
+  </si>
+  <si>
+    <t>0.685+/-0.016</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>1.706+/-0.091</t>
+  </si>
+  <si>
+    <t>0.764+/-0.005</t>
+  </si>
+  <si>
+    <t>0.684+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.741+/-0.007</t>
+  </si>
+  <si>
+    <t>0.57+/-0.016</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.811+/-0.006</t>
+  </si>
+  <si>
+    <t>0.695+/-0.025</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.857+/-0.004</t>
+  </si>
+  <si>
+    <t>0.757+/-0.014</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>6.993+/-0.276</t>
+  </si>
+  <si>
+    <t>0.694+/-0.006</t>
+  </si>
+  <si>
+    <t>0.625+/-0.0</t>
+  </si>
+  <si>
+    <t>0.662+/-0.007</t>
+  </si>
+  <si>
+    <t>0.505+/-0.014</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.794+/-0.012</t>
+  </si>
+  <si>
+    <t>0.72+/-0.027</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.769+/-0.007</t>
+  </si>
+  <si>
+    <t>0.697+/-0.016</t>
+  </si>
+  <si>
+    <t>0.73+/-0.064</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.976+/-0.003</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.986+/-0.024</t>
+  </si>
+  <si>
+    <t>0.29+/-0.016</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.966+/-0.02</t>
+  </si>
+  <si>
+    <t>0.609+/-0.036</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
     <t>0.998+/-0.002</t>
   </si>
   <si>
-    <t>0.732+/-0.015</t>
-  </si>
-  <si>
-    <t>0.738</t>
+    <t>0.667+/-0.02</t>
   </si>
   <si>
     <t>0.005+/-0.001</t>
   </si>
   <si>
-    <t>0.615+/-0.004</t>
-  </si>
-  <si>
-    <t>0.582+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.594+/-0.004</t>
-  </si>
-  <si>
-    <t>0.468+/-0.012</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.723+/-0.011</t>
-  </si>
-  <si>
-    <t>0.709+/-0.024</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.64+/-0.008</t>
-  </si>
-  <si>
-    <t>0.63+/-0.018</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.204+/-0.038</t>
-  </si>
-  <si>
-    <t>0.542+/-0.005</t>
-  </si>
-  <si>
-    <t>0.471+/-0.0</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.527+/-0.004</t>
-  </si>
-  <si>
-    <t>0.404+/-0.008</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.823+/-0.015</t>
-  </si>
-  <si>
-    <t>0.816+/-0.024</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.594+/-0.007</t>
-  </si>
-  <si>
-    <t>0.584+/-0.021</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.009+/-0.002</t>
-  </si>
-  <si>
-    <t>0.588+/-0.003</t>
-  </si>
-  <si>
-    <t>0.566+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.577+/-0.002</t>
-  </si>
-  <si>
-    <t>0.452+/-0.012</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.665+/-0.014</t>
-  </si>
-  <si>
-    <t>0.656+/-0.03</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.621+/-0.005</t>
-  </si>
-  <si>
-    <t>0.612+/-0.018</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.012+/-0.003</t>
-  </si>
-  <si>
-    <t>0.755+/-0.008</t>
-  </si>
-  <si>
-    <t>0.682+/-0.0</t>
+    <t>0.572+/-0.008</t>
+  </si>
+  <si>
+    <t>0.584+/-0.0</t>
+  </si>
+  <si>
+    <t>0.578+/-0.009</t>
+  </si>
+  <si>
+    <t>0.243+/-0.015</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>0.54+/-0.026</t>
+  </si>
+  <si>
+    <t>0.516+/-0.038</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.604+/-0.01</t>
+  </si>
+  <si>
+    <t>0.583+/-0.023</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.282+/-0.045</t>
+  </si>
+  <si>
+    <t>0.531+/-0.007</t>
+  </si>
+  <si>
+    <t>0.326+/-0.0</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.519+/-0.006</t>
+  </si>
+  <si>
+    <t>0.205+/-0.006</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.858+/-0.044</t>
+  </si>
+  <si>
+    <t>0.829+/-0.055</t>
+  </si>
+  <si>
+    <t>0.805</t>
+  </si>
+  <si>
+    <t>0.589+/-0.01</t>
+  </si>
+  <si>
+    <t>0.556+/-0.024</t>
+  </si>
+  <si>
+    <t>0.558</t>
+  </si>
+  <si>
+    <t>0.013+/-0.002</t>
+  </si>
+  <si>
+    <t>0.549+/-0.006</t>
+  </si>
+  <si>
+    <t>0.576+/-0.0</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.554+/-0.007</t>
+  </si>
+  <si>
+    <t>0.234+/-0.015</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.501+/-0.009</t>
+  </si>
+  <si>
+    <t>0.499+/-0.037</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.566+/-0.009</t>
+  </si>
+  <si>
+    <t>0.564+/-0.022</t>
+  </si>
+  <si>
+    <t>0.768+/-0.01</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.779+/-0.027</t>
+  </si>
+  <si>
+    <t>0.34+/-0.03</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.752+/-0.046</t>
+  </si>
+  <si>
+    <t>0.532+/-0.055</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.86+/-0.009</t>
+  </si>
+  <si>
+    <t>0.689+/-0.021</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>5.727+/-1.41</t>
+  </si>
+  <si>
+    <t>0.765+/-0.015</t>
+  </si>
+  <si>
+    <t>0.666+/-0.0</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.776+/-0.036</t>
+  </si>
+  <si>
+    <t>0.29+/-0.027</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.75+/-0.045</t>
+  </si>
+  <si>
+    <t>0.46+/-0.071</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.863+/-0.015</t>
+  </si>
+  <si>
+    <t>0.615+/-0.025</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.22+/-0.023</t>
+  </si>
+  <si>
+    <t>0.744+/-0.016</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.756+/-0.043</t>
+  </si>
+  <si>
+    <t>0.287+/-0.03</t>
+  </si>
+  <si>
+    <t>0.288</t>
+  </si>
+  <si>
+    <t>0.73+/-0.058</t>
+  </si>
+  <si>
+    <t>0.467+/-0.084</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.844+/-0.017</t>
+  </si>
+  <si>
+    <t>0.618+/-0.029</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.292+/-0.042</t>
+  </si>
+  <si>
+    <t>0.699+/-0.007</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
   </si>
   <si>
     <t>0.68</t>
   </si>
   <si>
-    <t>0.742+/-0.022</t>
-  </si>
-  <si>
-    <t>0.571+/-0.026</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.784+/-0.047</t>
-  </si>
-  <si>
-    <t>0.686+/-0.052</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.848+/-0.008</t>
-  </si>
-  <si>
-    <t>0.758+/-0.015</t>
+    <t>0.704+/-0.008</t>
+  </si>
+  <si>
+    <t>0.302+/-0.018</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.687+/-0.017</t>
+  </si>
+  <si>
+    <t>0.542+/-0.034</t>
+  </si>
+  <si>
+    <t>0.658+/-0.021</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>75.499+/-6.982</t>
+  </si>
+  <si>
+    <t>0.882+/-0.008</t>
+  </si>
+  <si>
+    <t>0.746+/-0.0</t>
   </si>
   <si>
     <t>0.765</t>
   </si>
   <si>
-    <t>7.201+/-2.686</t>
-  </si>
-  <si>
-    <t>0.753+/-0.01</t>
-  </si>
-  <si>
-    <t>0.639+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.723+/-0.02</t>
-  </si>
-  <si>
-    <t>0.521+/-0.021</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.826+/-0.035</t>
-  </si>
-  <si>
-    <t>0.69+/-0.045</t>
+    <t>0.884+/-0.016</t>
+  </si>
+  <si>
+    <t>0.384+/-0.032</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.88+/-0.006</t>
+  </si>
+  <si>
+    <t>0.455+/-0.04</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.957+/-0.005</t>
+  </si>
+  <si>
+    <t>0.699+/-0.023</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>13.677+/-0.423</t>
+  </si>
+  <si>
+    <t>0.691+/-0.014</t>
+  </si>
+  <si>
+    <t>0.68+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.724+/-0.028</t>
+  </si>
+  <si>
+    <t>0.287+/-0.024</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.623+/-0.022</t>
+  </si>
+  <si>
+    <t>0.404+/-0.059</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.766+/-0.019</t>
+  </si>
+  <si>
+    <t>0.608+/-0.022</t>
+  </si>
+  <si>
+    <t>2.555+/-0.101</t>
+  </si>
+  <si>
+    <t>0.815+/-0.007</t>
+  </si>
+  <si>
+    <t>0.756+/-0.0</t>
+  </si>
+  <si>
+    <t>0.861+/-0.021</t>
+  </si>
+  <si>
+    <t>0.38+/-0.034</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>0.752+/-0.014</t>
+  </si>
+  <si>
+    <t>0.357+/-0.053</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.901+/-0.007</t>
+  </si>
+  <si>
+    <t>0.667+/-0.024</t>
+  </si>
+  <si>
+    <t>10.497+/-0.385</t>
+  </si>
+  <si>
+    <t>0.691+/-0.006</t>
+  </si>
+  <si>
+    <t>0.614+/-0.0</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.677+/-0.008</t>
+  </si>
+  <si>
+    <t>0.275+/-0.016</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.731+/-0.014</t>
+  </si>
+  <si>
+    <t>0.576+/-0.035</t>
   </si>
   <si>
     <t>0.598</t>
   </si>
   <si>
-    <t>0.85+/-0.011</t>
-  </si>
-  <si>
-    <t>0.699+/-0.018</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.177+/-0.022</t>
-  </si>
-  <si>
-    <t>0.731+/-0.01</t>
-  </si>
-  <si>
-    <t>0.634+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.701+/-0.02</t>
-  </si>
-  <si>
-    <t>0.515+/-0.019</t>
-  </si>
-  <si>
-    <t>0.564</t>
-  </si>
-  <si>
-    <t>0.808+/-0.039</t>
-  </si>
-  <si>
-    <t>0.695+/-0.049</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.827+/-0.011</t>
-  </si>
-  <si>
-    <t>0.7+/-0.017</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.236+/-0.031</t>
-  </si>
-  <si>
-    <t>0.702+/-0.004</t>
-  </si>
-  <si>
-    <t>0.64+/-0.0</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.663+/-0.006</t>
-  </si>
-  <si>
-    <t>0.519+/-0.013</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.819+/-0.009</t>
-  </si>
-  <si>
-    <t>0.765+/-0.022</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>0.774+/-0.005</t>
-  </si>
-  <si>
-    <t>0.721+/-0.015</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>58.511+/-2.887</t>
-  </si>
-  <si>
-    <t>0.824+/-0.006</t>
-  </si>
-  <si>
-    <t>0.687+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.786+/-0.008</t>
-  </si>
-  <si>
-    <t>0.571+/-0.016</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.892+/-0.006</t>
-  </si>
-  <si>
-    <t>0.721+/-0.025</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.921+/-0.003</t>
-  </si>
-  <si>
-    <t>0.772+/-0.014</t>
-  </si>
-  <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>11.314+/-0.517</t>
-  </si>
-  <si>
-    <t>0.67+/-0.005</t>
-  </si>
-  <si>
-    <t>0.617+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647+/-0.006</t>
-  </si>
-  <si>
-    <t>0.498+/-0.013</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.747+/-0.014</t>
-  </si>
-  <si>
-    <t>0.682+/-0.029</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.743+/-0.007</t>
-  </si>
-  <si>
-    <t>0.686+/-0.016</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>2.597+/-0.383</t>
-  </si>
-  <si>
-    <t>0.763+/-0.005</t>
-  </si>
-  <si>
-    <t>0.683+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.74+/-0.007</t>
-  </si>
-  <si>
-    <t>0.569+/-0.017</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.811+/-0.006</t>
-  </si>
-  <si>
-    <t>0.696+/-0.025</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.857+/-0.004</t>
-  </si>
-  <si>
-    <t>0.756+/-0.015</t>
-  </si>
-  <si>
-    <t>0.758</t>
-  </si>
-  <si>
-    <t>12.752+/-1.692</t>
-  </si>
-  <si>
-    <t>0.694+/-0.006</t>
-  </si>
-  <si>
-    <t>0.625+/-0.0</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.662+/-0.008</t>
-  </si>
-  <si>
-    <t>0.506+/-0.014</t>
-  </si>
-  <si>
-    <t>0.503</t>
-  </si>
-  <si>
-    <t>0.794+/-0.013</t>
-  </si>
-  <si>
-    <t>0.72+/-0.027</t>
-  </si>
-  <si>
-    <t>0.769+/-0.006</t>
-  </si>
-  <si>
-    <t>0.697+/-0.016</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>1.478+/-0.263</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.802</t>
-  </si>
-  <si>
-    <t>0.976+/-0.003</t>
-  </si>
-  <si>
-    <t>0.626+/-0.0</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.985+/-0.024</t>
-  </si>
-  <si>
-    <t>0.291+/-0.016</t>
-  </si>
-  <si>
-    <t>0.303</t>
-  </si>
-  <si>
-    <t>0.967+/-0.02</t>
-  </si>
-  <si>
-    <t>0.609+/-0.037</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.999+/-0.001</t>
-  </si>
-  <si>
-    <t>0.667+/-0.02</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.573+/-0.008</t>
-  </si>
-  <si>
-    <t>0.583+/-0.0</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.578+/-0.009</t>
-  </si>
-  <si>
-    <t>0.243+/-0.014</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.541+/-0.025</t>
-  </si>
-  <si>
-    <t>0.518+/-0.038</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.604+/-0.01</t>
-  </si>
-  <si>
-    <t>0.584+/-0.023</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.389+/-0.059</t>
-  </si>
-  <si>
-    <t>0.531+/-0.007</t>
-  </si>
-  <si>
-    <t>0.326+/-0.0</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.519+/-0.006</t>
-  </si>
-  <si>
-    <t>0.205+/-0.006</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>0.858+/-0.046</t>
-  </si>
-  <si>
-    <t>0.829+/-0.057</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.589+/-0.01</t>
-  </si>
-  <si>
-    <t>0.556+/-0.024</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.018+/-0.004</t>
-  </si>
-  <si>
-    <t>0.549+/-0.006</t>
-  </si>
-  <si>
-    <t>0.576+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.554+/-0.006</t>
-  </si>
-  <si>
-    <t>0.234+/-0.015</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.501+/-0.009</t>
-  </si>
-  <si>
-    <t>0.499+/-0.037</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.565+/-0.009</t>
-  </si>
-  <si>
-    <t>0.564+/-0.022</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.021+/-0.012</t>
-  </si>
-  <si>
-    <t>0.767+/-0.011</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.778+/-0.028</t>
-  </si>
-  <si>
-    <t>0.34+/-0.03</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.751+/-0.05</t>
-  </si>
-  <si>
-    <t>0.532+/-0.056</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.86+/-0.01</t>
-  </si>
-  <si>
-    <t>0.69+/-0.021</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>14.561+/-6.187</t>
-  </si>
-  <si>
-    <t>0.764+/-0.016</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.775+/-0.037</t>
-  </si>
-  <si>
-    <t>0.292+/-0.026</t>
-  </si>
-  <si>
-    <t>0.313</t>
-  </si>
-  <si>
-    <t>0.749+/-0.05</t>
-  </si>
-  <si>
-    <t>0.466+/-0.075</t>
-  </si>
-  <si>
-    <t>0.862+/-0.016</t>
-  </si>
-  <si>
-    <t>0.619+/-0.026</t>
-  </si>
-  <si>
-    <t>0.299+/-0.023</t>
-  </si>
-  <si>
-    <t>0.744+/-0.016</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.755+/-0.04</t>
-  </si>
-  <si>
-    <t>0.285+/-0.029</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.733+/-0.058</t>
-  </si>
-  <si>
-    <t>0.467+/-0.083</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.845+/-0.017</t>
-  </si>
-  <si>
-    <t>0.618+/-0.028</t>
-  </si>
-  <si>
-    <t>0.433+/-0.034</t>
-  </si>
-  <si>
-    <t>0.699+/-0.007</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.704+/-0.008</t>
-  </si>
-  <si>
-    <t>0.301+/-0.018</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>0.687+/-0.017</t>
-  </si>
-  <si>
-    <t>0.542+/-0.037</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.769+/-0.008</t>
-  </si>
-  <si>
-    <t>0.658+/-0.021</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>153.022+/-22.676</t>
-  </si>
-  <si>
-    <t>0.882+/-0.008</t>
-  </si>
-  <si>
-    <t>0.745+/-0.0</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.883+/-0.015</t>
-  </si>
-  <si>
-    <t>0.382+/-0.031</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.881+/-0.007</t>
-  </si>
-  <si>
-    <t>0.454+/-0.041</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.957+/-0.005</t>
-  </si>
-  <si>
-    <t>0.699+/-0.023</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>21.739+/-1.529</t>
-  </si>
-  <si>
-    <t>0.692+/-0.013</t>
-  </si>
-  <si>
-    <t>0.68+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724+/-0.027</t>
-  </si>
-  <si>
-    <t>0.286+/-0.023</t>
-  </si>
-  <si>
-    <t>0.298</t>
-  </si>
-  <si>
-    <t>0.623+/-0.023</t>
-  </si>
-  <si>
-    <t>0.401+/-0.06</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.766+/-0.019</t>
-  </si>
-  <si>
-    <t>0.608+/-0.023</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>4.135+/-0.468</t>
-  </si>
-  <si>
-    <t>0.816+/-0.007</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.863+/-0.021</t>
-  </si>
-  <si>
-    <t>0.379+/-0.035</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.753+/-0.014</t>
-  </si>
-  <si>
-    <t>0.354+/-0.051</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.902+/-0.007</t>
-  </si>
-  <si>
-    <t>0.667+/-0.023</t>
-  </si>
-  <si>
-    <t>17.15+/-1.497</t>
-  </si>
-  <si>
-    <t>0.691+/-0.006</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678+/-0.007</t>
-  </si>
-  <si>
-    <t>0.275+/-0.016</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>0.73+/-0.014</t>
-  </si>
-  <si>
-    <t>0.575+/-0.038</t>
-  </si>
-  <si>
     <t>0.772+/-0.005</t>
   </si>
   <si>
-    <t>0.637+/-0.023</t>
-  </si>
-  <si>
-    <t>0.666</t>
-  </si>
-  <si>
-    <t>1.975+/-0.34</t>
+    <t>0.637+/-0.022</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.943+/-0.068</t>
   </si>
 </sst>
 </file>
@@ -1444,34 +1432,34 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1488,34 +1476,34 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1532,34 +1520,34 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N4" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1576,34 +1564,34 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1620,34 +1608,34 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1664,34 +1652,34 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1708,34 +1696,34 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1752,34 +1740,34 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1793,37 +1781,37 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1837,37 +1825,37 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1881,37 +1869,37 @@
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1925,37 +1913,37 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N13" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1969,37 +1957,37 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2064,40 +2052,40 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2105,43 +2093,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" t="s">
-        <v>190</v>
-      </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="N3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2149,43 +2137,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
         <v>188</v>
       </c>
-      <c r="C4" t="s">
-        <v>191</v>
-      </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="M4" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2196,40 +2184,40 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2240,40 +2228,40 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2284,40 +2272,40 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2328,40 +2316,40 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2372,40 +2360,40 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2416,40 +2404,40 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="I10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J10" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="K10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N10" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2460,40 +2448,40 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J11" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="K11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M11" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2504,40 +2492,40 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J12" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2548,40 +2536,40 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
         <v>225</v>
       </c>
-      <c r="F13" t="s">
-        <v>238</v>
-      </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L13" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2592,40 +2580,40 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L14" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
